--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_41.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_41.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_0</t>
+          <t>model_1_41_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9933100245803368</v>
+        <v>0.8450055641137604</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8015219050383861</v>
+        <v>0.6074948777691148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7693017843484046</v>
+        <v>0.7516974505012576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9937857364874668</v>
+        <v>0.4530352595632099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02784720128550295</v>
+        <v>0.3673666704275408</v>
       </c>
       <c r="G2" t="n">
-        <v>1.327223934915905</v>
+        <v>2.624683559677834</v>
       </c>
       <c r="H2" t="n">
-        <v>0.825194140734639</v>
+        <v>0.8881638221479582</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02087874885474863</v>
+        <v>0.2977833052169218</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4629084129196015</v>
+        <v>1.228834493554993</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1668748072223694</v>
+        <v>0.6061078042951937</v>
       </c>
       <c r="L2" t="n">
-        <v>1.428158426858445</v>
+        <v>0.788943746878312</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1695029186225142</v>
+        <v>0.6156533963273227</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1620456202002</v>
+        <v>36.00278965543073</v>
       </c>
       <c r="O2" t="n">
-        <v>278.4972181634166</v>
+        <v>72.96737324365655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_1</t>
+          <t>model_1_41_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9935358985048846</v>
+        <v>0.8449881936348185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8012378076514899</v>
+        <v>0.6074734814229383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7688725475898105</v>
+        <v>0.7513294913085986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9944898928684491</v>
+        <v>0.4562435549166819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02690699504445442</v>
+        <v>0.3674078418087979</v>
       </c>
       <c r="G3" t="n">
-        <v>1.329123695450228</v>
+        <v>2.624826637143236</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8267294957315527</v>
+        <v>0.8894799908445996</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01851291673267224</v>
+        <v>0.2960366171329586</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4562363659716262</v>
+        <v>1.217801242357916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1640335180518128</v>
+        <v>0.6061417670881936</v>
       </c>
       <c r="L3" t="n">
-        <v>1.413702495687389</v>
+        <v>0.7889200934601783</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1666168819877685</v>
+        <v>0.6156878940003621</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2307379747025</v>
+        <v>36.0025655247315</v>
       </c>
       <c r="O3" t="n">
-        <v>278.565910517919</v>
+        <v>72.96714911295733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_2</t>
+          <t>model_1_41_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9941414272056941</v>
+        <v>0.8449114849420361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7999353601227288</v>
+        <v>0.6073582630477723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7680682787833498</v>
+        <v>0.7509908033596636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9977943635450897</v>
+        <v>0.4590783580013926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02438646566163592</v>
+        <v>0.3675896561874831</v>
       </c>
       <c r="G4" t="n">
-        <v>1.337833168072273</v>
+        <v>2.625597102948503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8296063186180778</v>
+        <v>0.8906914579996843</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007410520895046501</v>
+        <v>0.2944932689611365</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4373553351344514</v>
+        <v>1.209728823781332</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1561616651474872</v>
+        <v>0.6062917253166854</v>
       </c>
       <c r="L4" t="n">
-        <v>1.374948658835578</v>
+        <v>0.7888156390700065</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1586210552691657</v>
+        <v>0.6158402139210494</v>
       </c>
       <c r="N4" t="n">
-        <v>137.4274539731534</v>
+        <v>36.00157605533663</v>
       </c>
       <c r="O4" t="n">
-        <v>278.7626265163698</v>
+        <v>72.96615964356245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_3</t>
+          <t>model_1_41_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9942617733372509</v>
+        <v>0.8448544080602984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7990288378545384</v>
+        <v>0.6072968235968371</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7675511745317195</v>
+        <v>0.7506227624238243</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979526338274265</v>
+        <v>0.4620805303418274</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02388552167617061</v>
+        <v>0.3677249393922155</v>
       </c>
       <c r="G5" t="n">
-        <v>1.343895086653814</v>
+        <v>2.62600794883981</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8314559705427322</v>
+        <v>0.8920079190869421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006878762711728793</v>
+        <v>0.2928588001621942</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4290774880042925</v>
+        <v>1.199524383581235</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1545494149978272</v>
+        <v>0.6064032811522506</v>
       </c>
       <c r="L5" t="n">
-        <v>1.367246506415945</v>
+        <v>0.7887379173587042</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1569834137913074</v>
+        <v>0.6159535266495098</v>
       </c>
       <c r="N5" t="n">
-        <v>137.4689655824321</v>
+        <v>36.00084013518995</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8041381256485</v>
+        <v>72.96542372341577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_4</t>
+          <t>model_1_41_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.994339010621922</v>
+        <v>0.8447608192635695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7985479015710918</v>
+        <v>0.607174226630101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7668156175117649</v>
+        <v>0.7502743754895883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9977485803337939</v>
+        <v>0.4648844631226603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02356401941673619</v>
+        <v>0.3679467628689552</v>
       </c>
       <c r="G6" t="n">
-        <v>1.347111109795729</v>
+        <v>2.626827755320881</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8340870153530633</v>
+        <v>0.8932540789500691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007564343816858615</v>
+        <v>0.2913322586699296</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4240861066273653</v>
+        <v>1.19114594492135</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1535057634642302</v>
+        <v>0.6065861545312052</v>
       </c>
       <c r="L6" t="n">
-        <v>1.362303320196993</v>
+        <v>0.7886104772950734</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1559233257893251</v>
+        <v>0.6161392801013766</v>
       </c>
       <c r="N6" t="n">
-        <v>137.4960686626461</v>
+        <v>35.99963403479065</v>
       </c>
       <c r="O6" t="n">
-        <v>278.8312412058625</v>
+        <v>72.96421762301648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_5</t>
+          <t>model_1_41_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.994452747924407</v>
+        <v>0.8446499943789495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7984173931556211</v>
+        <v>0.6070256028083554</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7663871594179076</v>
+        <v>0.7499329876414336</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997799494762177</v>
+        <v>0.4676224813312013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02309058485871681</v>
+        <v>0.3682094391942733</v>
       </c>
       <c r="G7" t="n">
-        <v>1.347983820170918</v>
+        <v>2.627821603501244</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8356195851113633</v>
+        <v>0.8944752034881136</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007393280977126908</v>
+        <v>0.2898416029628865</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4192242899088396</v>
+        <v>1.183352449129441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1519558648381721</v>
+        <v>0.6068026361134841</v>
       </c>
       <c r="L7" t="n">
-        <v>1.355024132837954</v>
+        <v>0.7884595668138887</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1543490178092367</v>
+        <v>0.6163591710521742</v>
       </c>
       <c r="N7" t="n">
-        <v>137.5366606528244</v>
+        <v>35.99820674891991</v>
       </c>
       <c r="O7" t="n">
-        <v>278.8718331960408</v>
+        <v>72.96279033714573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_6</t>
+          <t>model_1_41_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9945519120613774</v>
+        <v>0.8445286192456595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7982113599832692</v>
+        <v>0.6068652518178043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7657767857928029</v>
+        <v>0.7495919773049362</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9977836999362941</v>
+        <v>0.4703430633170894</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02267781149120883</v>
+        <v>0.3684971216412884</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34936156494313</v>
+        <v>2.628893871313408</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8378028561768661</v>
+        <v>0.8956949776888494</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007446348601656767</v>
+        <v>0.2883604400359592</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4152953488890586</v>
+        <v>1.175648738961352</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1505915385777329</v>
+        <v>0.6070396376195614</v>
       </c>
       <c r="L8" t="n">
-        <v>1.348677628071847</v>
+        <v>0.7882942900366428</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1529632047740216</v>
+        <v>0.6165999050950576</v>
       </c>
       <c r="N8" t="n">
-        <v>137.5727365997503</v>
+        <v>35.99664475679479</v>
       </c>
       <c r="O8" t="n">
-        <v>278.9079091429667</v>
+        <v>72.96122834502061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_7</t>
+          <t>model_1_41_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9943021802228393</v>
+        <v>0.8443952436451091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.796731538085556</v>
+        <v>0.6066883590055305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7652452461977866</v>
+        <v>0.7492539734849486</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9957794615782105</v>
+        <v>0.4730401852516586</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02371732693617256</v>
+        <v>0.3688132475074223</v>
       </c>
       <c r="G9" t="n">
-        <v>1.359257140787092</v>
+        <v>2.630076754363599</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8397041424878032</v>
+        <v>0.8969039977543578</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0141802100220948</v>
+        <v>0.2868920494343864</v>
       </c>
       <c r="J9" t="n">
-        <v>0.42580941141656</v>
+        <v>1.168187867729176</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1540043081740656</v>
+        <v>0.6072999650151664</v>
       </c>
       <c r="L9" t="n">
-        <v>1.364660465738282</v>
+        <v>0.7881126721975954</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1564297220799785</v>
+        <v>0.6168643323869114</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4830988072141</v>
+        <v>35.99492973474311</v>
       </c>
       <c r="O9" t="n">
-        <v>278.8182713504306</v>
+        <v>72.95951332296893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_9</t>
+          <t>model_1_41_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9934742318515779</v>
+        <v>0.8442520442951834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7942173152608757</v>
+        <v>0.6065002026657332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7630851102648826</v>
+        <v>0.7489164278838052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9898843957710008</v>
+        <v>0.475730581462885</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02716368413514763</v>
+        <v>0.3691526575519751</v>
       </c>
       <c r="G10" t="n">
-        <v>1.376069760392661</v>
+        <v>2.631334956674204</v>
       </c>
       <c r="H10" t="n">
-        <v>0.847430823467923</v>
+        <v>0.8981113787976293</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03398651502070168</v>
+        <v>0.2854273205096621</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4355585532324555</v>
+        <v>1.16078725828297</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1648140896135631</v>
+        <v>0.6075793425981294</v>
       </c>
       <c r="L10" t="n">
-        <v>1.417649161499014</v>
+        <v>0.7879176773381221</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1674097467713311</v>
+        <v>0.6171481098875311</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2117486797334</v>
+        <v>35.99309002878294</v>
       </c>
       <c r="O10" t="n">
-        <v>278.5469212229498</v>
+        <v>72.95767361700877</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_41_8</t>
+          <t>model_1_41_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9931038601128755</v>
+        <v>0.8441001386853708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7941900150497865</v>
+        <v>0.6063031178624995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7636270910003065</v>
+        <v>0.7485775175518753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9882170337018903</v>
+        <v>0.4784221193634278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02870536638524838</v>
+        <v>0.3695127031095914</v>
       </c>
       <c r="G11" t="n">
-        <v>1.37625231702992</v>
+        <v>2.63265286366092</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8454921898031604</v>
+        <v>0.8993236414037922</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03958853589102417</v>
+        <v>0.283961970016502</v>
       </c>
       <c r="J11" t="n">
-        <v>0.441797509991587</v>
+        <v>1.153375419873971</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1694265811059421</v>
+        <v>0.6078755654816136</v>
       </c>
       <c r="L11" t="n">
-        <v>1.441352952775965</v>
+        <v>0.7877108271460369</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1720948803939151</v>
+        <v>0.6174489979853158</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1013423832622</v>
+        <v>35.99114031999569</v>
       </c>
       <c r="O11" t="n">
-        <v>278.4365149264787</v>
+        <v>72.95572390822151</v>
       </c>
     </row>
   </sheetData>
